--- a/pred_ohlcv/54_21/2019-10-29 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BCH ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-149.5051971500001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-131.3016906600001</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-75.25129066000014</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-40.27679066000014</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-74.37639066000014</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-70.13479066000014</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-70.13479066000014</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-74.65779066000015</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-74.62859066000014</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-74.65779066000015</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-73.31709066000015</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>116.6910893899998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>356.9350893899997</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-478.5910947100008</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-531.4510947100008</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-498.7349947100008</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-531.6763947100009</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-532.8806947100009</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-583.6660947100008</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-506.7669947100009</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-349.6544947100008</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-37.22229221000081</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-5.690992210000807</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>3.161107789999193</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>0.5900077899991927</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>64.6069077899992</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-271.9987922100008</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-253.0442922100008</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-181.2202044000007</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-313.9143878700008</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-310.4022878700008</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-290.1779878700008</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-292.1809878700008</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-312.1824878700008</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-321.6062878700009</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-322.9722878700009</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-355.8145878700009</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-367.5902878700009</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-299.0943878700009</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-288.1521878700009</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-281.9912878700009</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-281.9612878700009</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-291.6653878700009</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-343.3087878700009</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-298.1785878700009</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-427.1414878700008</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-446.4611878700009</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-427.6236878700009</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-440.3373878700009</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-464.5668878700009</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-429.1821878700009</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-419.8550878700009</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-413.7851878700009</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-385.5816878700009</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-356.7343878700009</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3524.65149238</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>2749.92296575</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>2471.29336575</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>2471.29336575</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>2245.49219019</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>2353.71248571</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>2403.66328607</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>2868.51704943</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>2709.55722577</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>2881.90683982</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>2508.10058268</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>2823.07173748</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4194.729709769999</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4092.532509769999</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3759.195655229999</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3957.43865469</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4023.99605469</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4023.99605469</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3928.97385469</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3902.58735469</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3825.75635469</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>4010.68155469</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3964.59065397</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3775.73055397</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3869.89785068</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3911.95975068</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3876.44095068</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4058.32438853</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4239.75698853</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>5808.99329941</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>5403.77229941</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>5109.34541717</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>4923.691717170001</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>5165.59110792</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>4803.171707920001</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>4518.368207920001</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>4856.378380430001</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>4574.105980430001</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>4808.390180430001</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>4870.821080430002</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>4947.877180430001</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>4694.124880430001</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>4535.604380430002</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BCH ohlcv.xlsx
@@ -11702,7 +11702,7 @@
         <v>33.9096077899992</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>15.3992077899992</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-271.9987922100008</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-253.0442922100008</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-181.2202044000007</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-322.9722878700009</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-355.8145878700009</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-367.5902878700009</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-299.0943878700009</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-288.1521878700009</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-281.9912878700009</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-281.9612878700009</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-291.6653878700009</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-343.3087878700009</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-298.1785878700009</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3524.65149238</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>2749.92296575</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>2471.29336575</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>2471.29336575</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>2245.49219019</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>2353.71248571</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>2403.66328607</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>2868.51704943</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>2709.55722577</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>2881.90683982</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>2508.10058268</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>2823.07173748</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4194.729709769999</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4092.532509769999</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3759.195655229999</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3957.43865469</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>4023.99605469</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4023.99605469</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3928.97385469</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3902.58735469</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3825.75635469</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>4010.68155469</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3964.59065397</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3775.73055397</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3869.89785068</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3911.95975068</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3876.44095068</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4058.32438853</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4239.75698853</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>6459.1666045</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>6172.934908570001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>5894.05874352</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>5778.94842906</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>5894.31292906</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>5835.06930083</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>5763.69700083</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>5957.371600830001</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>5880.51940083</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>5931.19790083</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>5931.19790083</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>6203.459200830001</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>6203.459200830001</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>6642.87450083</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>5808.99329941</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>5403.77229941</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>5109.34541717</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>4923.691717170001</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>5165.59110792</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>4803.171707920001</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>4518.368207920001</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>4856.378380430001</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>4574.105980430001</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>4808.390180430001</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>4870.821080430002</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>4947.877180430001</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>4694.124880430001</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>4535.604380430002</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>4398.729422350001</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>4352.574052580001</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>4388.546152580001</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>4239.057652580001</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>4118.730080390001</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>4347.743436010001</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>4202.50723601</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>4095.59143601</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>4095.59143601</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>4192.28100482</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>4268.89393419</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>4152.774174869999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3955.155374869999</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>4053.163774869999</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>4345.65167487</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>4471.91117487</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>4272.73797646</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>4500.97437646</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3900.28567646</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3856.14607646</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>4755.835763400003</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>4645.255063400003</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>4731.022263400003</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>4687.486363400003</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>4435.053463400003</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>4464.967463400003</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
